--- a/data/trans_orig/P05A07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A07-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>113444</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>97479</v>
+        <v>95281</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>131089</v>
+        <v>129571</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3892476514608487</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3344691482754097</v>
+        <v>0.3269268787235237</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4497917370112915</v>
+        <v>0.4445830444887505</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>96</v>
@@ -764,19 +764,19 @@
         <v>106401</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>89085</v>
+        <v>88776</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>124072</v>
+        <v>123894</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3754911730594852</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3143833935217461</v>
+        <v>0.313292779062753</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4378540203620189</v>
+        <v>0.4372268759714625</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>202</v>
@@ -785,19 +785,19 @@
         <v>219845</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>195802</v>
+        <v>196893</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>244761</v>
+        <v>244388</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3824661045647361</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3406382475188283</v>
+        <v>0.3425365563213059</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.425813075641034</v>
+        <v>0.4251646663466265</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>107053</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>91329</v>
+        <v>89993</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>123770</v>
+        <v>124591</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3673191859863389</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3133669547847328</v>
+        <v>0.3087841460739125</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4246784266906195</v>
+        <v>0.4274957934371418</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>86</v>
@@ -835,19 +835,19 @@
         <v>95839</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>78297</v>
+        <v>79711</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>113391</v>
+        <v>113371</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3382186740677187</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2763121640281015</v>
+        <v>0.2813023508497961</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.400159196923348</v>
+        <v>0.4000895010641436</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>189</v>
@@ -856,19 +856,19 @@
         <v>202892</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>179751</v>
+        <v>178857</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>226947</v>
+        <v>228086</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3529734733323325</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3127152680582472</v>
+        <v>0.3111597002354412</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3948228914142748</v>
+        <v>0.3968039481833027</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>70947</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56661</v>
+        <v>58154</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>86351</v>
+        <v>86134</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2434331625528124</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1944160004323087</v>
+        <v>0.1995378247164288</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2962880534563361</v>
+        <v>0.2955415350880976</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>71</v>
@@ -906,19 +906,19 @@
         <v>81124</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>64826</v>
+        <v>66043</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>99891</v>
+        <v>98723</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2862901528727961</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2287738528971184</v>
+        <v>0.2330677991245109</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3525195790780543</v>
+        <v>0.3483952724023877</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>141</v>
@@ -927,19 +927,19 @@
         <v>152071</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>128949</v>
+        <v>128929</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>174843</v>
+        <v>173564</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2645604221029314</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2243338071038624</v>
+        <v>0.2242985798546227</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3041761699225946</v>
+        <v>0.3019519512092887</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>306129</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>283920</v>
+        <v>283287</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>327550</v>
+        <v>329150</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6067197451543067</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5627041702174965</v>
+        <v>0.5614499926613843</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.649173799895665</v>
+        <v>0.6523446367819471</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>290</v>
@@ -1052,19 +1052,19 @@
         <v>319539</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>294743</v>
+        <v>297893</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>341541</v>
+        <v>342844</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6173745771824812</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5694662012366797</v>
+        <v>0.5755529338553708</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6598840531661795</v>
+        <v>0.6624019508094586</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>579</v>
@@ -1073,19 +1073,19 @@
         <v>625668</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>591784</v>
+        <v>591942</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>657393</v>
+        <v>656561</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6121149856204104</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.578965079910801</v>
+        <v>0.579119683834961</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6431532144166157</v>
+        <v>0.6423385886408719</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>141755</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>122539</v>
+        <v>119493</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>163543</v>
+        <v>161982</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.280946510188229</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2428605891390735</v>
+        <v>0.2368246438670919</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3241275387758124</v>
+        <v>0.3210329275759751</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>133</v>
@@ -1123,19 +1123,19 @@
         <v>142090</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>121998</v>
+        <v>122401</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>163630</v>
+        <v>163511</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2745284894472233</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2357101445272982</v>
+        <v>0.236488503553597</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3161468767104268</v>
+        <v>0.3159160177759516</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>264</v>
@@ -1144,19 +1144,19 @@
         <v>283845</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>253754</v>
+        <v>256638</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>312651</v>
+        <v>313300</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2776966452328168</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2482570085391102</v>
+        <v>0.2510784154270527</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3058788116979657</v>
+        <v>0.3065136175892048</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>56680</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44287</v>
+        <v>42524</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73505</v>
+        <v>73143</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1123337446574644</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08777353509688272</v>
+        <v>0.08427959572724777</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1456811246059184</v>
+        <v>0.1449618449204113</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -1194,19 +1194,19 @@
         <v>55948</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>43246</v>
+        <v>43870</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72598</v>
+        <v>74331</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1080969333702954</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08355433726518588</v>
+        <v>0.08475951300275801</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.140265514984497</v>
+        <v>0.1436131001995946</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>103</v>
@@ -1215,19 +1215,19 @@
         <v>112628</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>91166</v>
+        <v>92044</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>134410</v>
+        <v>134529</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1101883691467727</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08919088226640626</v>
+        <v>0.09005015831464044</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1314989520323432</v>
+        <v>0.131615229805095</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>119146</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>101647</v>
+        <v>102155</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>136419</v>
+        <v>137993</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3687670523713853</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3146044071686731</v>
+        <v>0.3161760889850347</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4222274484658761</v>
+        <v>0.427098206592913</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>123</v>
@@ -1340,19 +1340,19 @@
         <v>130568</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>111484</v>
+        <v>111379</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>148329</v>
+        <v>149214</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3828736568685174</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3269143257072702</v>
+        <v>0.3266065545498388</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4349559624913011</v>
+        <v>0.4375508248345717</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>241</v>
@@ -1361,19 +1361,19 @@
         <v>249714</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>223750</v>
+        <v>224639</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>274956</v>
+        <v>275523</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3760107445207317</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3369144317057279</v>
+        <v>0.3382543244021323</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4140189619970191</v>
+        <v>0.4148728149702143</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>159426</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>142633</v>
+        <v>141388</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>177526</v>
+        <v>176646</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.493434004372518</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4414605565675473</v>
+        <v>0.437605060551544</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5494562604671448</v>
+        <v>0.5467332882014613</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>142</v>
@@ -1411,19 +1411,19 @@
         <v>154510</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>137005</v>
+        <v>135731</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>175927</v>
+        <v>174599</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4530811930450949</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4017514049822849</v>
+        <v>0.3980147361469603</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.515883646839457</v>
+        <v>0.511989837191318</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>298</v>
@@ -1432,19 +1432,19 @@
         <v>313935</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>287340</v>
+        <v>285532</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>342744</v>
+        <v>337962</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4727129766669539</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4326659912376095</v>
+        <v>0.4299445747711333</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5160914774007577</v>
+        <v>0.5088915229395151</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>44522</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>33309</v>
+        <v>34074</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>58189</v>
+        <v>59463</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1377989432560967</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1030940083537148</v>
+        <v>0.1054606840257628</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1800984439613849</v>
+        <v>0.1840420979843536</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -1482,19 +1482,19 @@
         <v>55943</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>42351</v>
+        <v>43405</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>70797</v>
+        <v>71632</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1640451500863877</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1241879652260416</v>
+        <v>0.1272789209366443</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2076050471732196</v>
+        <v>0.2100520337888644</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>96</v>
@@ -1503,19 +1503,19 @@
         <v>100465</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>81682</v>
+        <v>83033</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>121628</v>
+        <v>118973</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1512762788123145</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1229934432385798</v>
+        <v>0.1250278844412206</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1831433170205043</v>
+        <v>0.1791454156469726</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>228312</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>206615</v>
+        <v>209139</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>245285</v>
+        <v>247681</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6124015720250939</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5542041731640748</v>
+        <v>0.5609738965640959</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6579281102035177</v>
+        <v>0.664355410315169</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>222</v>
@@ -1628,19 +1628,19 @@
         <v>233962</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>214877</v>
+        <v>215625</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>251588</v>
+        <v>252637</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.606210340767373</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5567596572084293</v>
+        <v>0.5586987327654548</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6518802012351478</v>
+        <v>0.6545980180189029</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>429</v>
@@ -1649,19 +1649,19 @@
         <v>462275</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>434269</v>
+        <v>436140</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>489120</v>
+        <v>493238</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6092523971800549</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5723423788672094</v>
+        <v>0.5748081415254525</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6446337186457571</v>
+        <v>0.6500604261473458</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>91272</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>74788</v>
+        <v>75635</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>109213</v>
+        <v>111624</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2448181473046811</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2006039190780695</v>
+        <v>0.2028764035885905</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2929435741854704</v>
+        <v>0.2994100098682078</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>79</v>
@@ -1699,19 +1699,19 @@
         <v>84179</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>68178</v>
+        <v>68234</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>103354</v>
+        <v>100176</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2181135003123808</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.176653679387902</v>
+        <v>0.1767991674876159</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2677957715954644</v>
+        <v>0.259561470973605</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>165</v>
@@ -1720,19 +1720,19 @@
         <v>175451</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>153032</v>
+        <v>149984</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>200509</v>
+        <v>199616</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.231234806761728</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2016875158142763</v>
+        <v>0.1976711685842126</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2642596040160441</v>
+        <v>0.2630824540142071</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>53230</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>40647</v>
+        <v>40613</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>68188</v>
+        <v>67966</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1427802806702249</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1090279846538383</v>
+        <v>0.1089362096012399</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1829004550031807</v>
+        <v>0.1823060974009023</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>67</v>
@@ -1770,19 +1770,19 @@
         <v>67801</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>53029</v>
+        <v>54110</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>84695</v>
+        <v>83159</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1756761589202461</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1374017422678851</v>
+        <v>0.1402036475010696</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2194506840118543</v>
+        <v>0.2154714543634342</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>117</v>
@@ -1791,19 +1791,19 @@
         <v>121031</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>102350</v>
+        <v>102612</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>142814</v>
+        <v>143580</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1595127960582171</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1348911701085086</v>
+        <v>0.1352375855597789</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1882210000511169</v>
+        <v>0.1892308349534996</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>99091</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>84014</v>
+        <v>83471</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>113300</v>
+        <v>114761</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.466054122194984</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3951425022964011</v>
+        <v>0.3925880560435869</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5328816273544653</v>
+        <v>0.5397531897277197</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>80</v>
@@ -1916,19 +1916,19 @@
         <v>84272</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>70577</v>
+        <v>71042</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>100231</v>
+        <v>99518</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3837672335834781</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3214009564629069</v>
+        <v>0.3235194030246131</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.456443230262164</v>
+        <v>0.4531980879598378</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>170</v>
@@ -1937,19 +1937,19 @@
         <v>183363</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>163760</v>
+        <v>162481</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>204322</v>
+        <v>202353</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.424246898117473</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3788914476087959</v>
+        <v>0.3759306270932254</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4727394985564976</v>
+        <v>0.4681840654575686</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>80097</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>67289</v>
+        <v>66675</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>96110</v>
+        <v>95205</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3767157787394911</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3164805356706812</v>
+        <v>0.3135900642724155</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4520308852056447</v>
+        <v>0.4477757358319974</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>92</v>
@@ -1987,19 +1987,19 @@
         <v>95618</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>81444</v>
+        <v>80797</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>109784</v>
+        <v>108290</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4354357977018156</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3708914882530245</v>
+        <v>0.3679429145670365</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4999479506623928</v>
+        <v>0.4931441673326677</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>166</v>
@@ -2008,19 +2008,19 @@
         <v>175714</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>156737</v>
+        <v>156203</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>196758</v>
+        <v>197046</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4065494622341218</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3626409001116875</v>
+        <v>0.3614062045438964</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4552373339169569</v>
+        <v>0.4559037442010996</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>33430</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22881</v>
+        <v>23472</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44533</v>
+        <v>46538</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1572300990655249</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1076155492842924</v>
+        <v>0.110394387017455</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2094503272794726</v>
+        <v>0.2188805628498986</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>40</v>
@@ -2058,19 +2058,19 @@
         <v>39701</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29059</v>
+        <v>29640</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>51784</v>
+        <v>52026</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1807969687147063</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.132334459266304</v>
+        <v>0.1349779123023462</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2358211424117573</v>
+        <v>0.2369239883093941</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>72</v>
@@ -2079,19 +2079,19 @@
         <v>73131</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>56848</v>
+        <v>58097</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>89249</v>
+        <v>89407</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1692036396484053</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1315284039215625</v>
+        <v>0.1344182699031284</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2064940853144833</v>
+        <v>0.206859914899461</v>
       </c>
     </row>
     <row r="23">
@@ -2183,19 +2183,19 @@
         <v>101257</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>85155</v>
+        <v>84886</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>119302</v>
+        <v>117460</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3695779815533158</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3108063739352612</v>
+        <v>0.3098257783161117</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4354389585541122</v>
+        <v>0.428716677493151</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>112</v>
@@ -2204,19 +2204,19 @@
         <v>117791</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>102766</v>
+        <v>101854</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>134731</v>
+        <v>135960</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4206363538076409</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3669822945185262</v>
+        <v>0.3637232254048119</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4811303807018354</v>
+        <v>0.4855172219905287</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>209</v>
@@ -2225,19 +2225,19 @@
         <v>219049</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>195664</v>
+        <v>196962</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>241504</v>
+        <v>245643</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3953859548469091</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3531761041452247</v>
+        <v>0.3555201240630774</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4359190588263184</v>
+        <v>0.4433897561451504</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>140774</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>124075</v>
+        <v>125001</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>157049</v>
+        <v>157590</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5138099050081334</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4528591083136668</v>
+        <v>0.456240350509331</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5732109151899788</v>
+        <v>0.5751849796995572</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>131</v>
@@ -2275,19 +2275,19 @@
         <v>135632</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>120503</v>
+        <v>118419</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>152213</v>
+        <v>152273</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4843452759719092</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4303214190083142</v>
+        <v>0.4228782816631777</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5435585100168195</v>
+        <v>0.5437730239083162</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>264</v>
@@ -2296,19 +2296,19 @@
         <v>276406</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>253079</v>
+        <v>251126</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>301522</v>
+        <v>300575</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4989167087369168</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.456811520138898</v>
+        <v>0.453286784437959</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5442509754073233</v>
+        <v>0.5425429478624453</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>31950</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>21983</v>
+        <v>21980</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>43680</v>
+        <v>43921</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1166121134385507</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08023630822481112</v>
+        <v>0.08022396876168564</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1594281016863095</v>
+        <v>0.1603065282250858</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>26</v>
@@ -2346,19 +2346,19 @@
         <v>26608</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>17872</v>
+        <v>17748</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>36449</v>
+        <v>36835</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09501837022044982</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06382066835796814</v>
+        <v>0.06338041860714855</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1301596174828129</v>
+        <v>0.1315397807471088</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>57</v>
@@ -2367,19 +2367,19 @@
         <v>58558</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>44498</v>
+        <v>45954</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>73718</v>
+        <v>75473</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1056973364161741</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08031900587652846</v>
+        <v>0.08294853984749277</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1330624919243835</v>
+        <v>0.136229571518849</v>
       </c>
     </row>
     <row r="27">
@@ -2471,19 +2471,19 @@
         <v>282068</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>255661</v>
+        <v>255375</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>306780</v>
+        <v>305182</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4262117260047363</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3863106668171313</v>
+        <v>0.3858789756128604</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4635532534466805</v>
+        <v>0.4611373604941156</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>257</v>
@@ -2492,19 +2492,19 @@
         <v>281600</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>255399</v>
+        <v>255547</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>309676</v>
+        <v>306747</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.406404514169934</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3685916247985388</v>
+        <v>0.3688045052613037</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4469241948371642</v>
+        <v>0.4426970480886294</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>517</v>
@@ -2513,19 +2513,19 @@
         <v>563667</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>530129</v>
+        <v>527744</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>602931</v>
+        <v>600462</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4160807340673145</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3913239101704955</v>
+        <v>0.3895635470839589</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4450637033582817</v>
+        <v>0.4432409085974013</v>
       </c>
     </row>
     <row r="29">
@@ -2542,19 +2542,19 @@
         <v>291970</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>265241</v>
+        <v>267779</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>318051</v>
+        <v>320666</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4411735070360769</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4007859151021615</v>
+        <v>0.4046206798828265</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4805831886384616</v>
+        <v>0.4845343526807256</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>283</v>
@@ -2563,19 +2563,19 @@
         <v>306133</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>278331</v>
+        <v>280826</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>334058</v>
+        <v>333058</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4418099920986189</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4016858543813608</v>
+        <v>0.40528757936313</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4821112729082185</v>
+        <v>0.4806677201748615</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>557</v>
@@ -2584,19 +2584,19 @@
         <v>598102</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>559868</v>
+        <v>561754</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>632986</v>
+        <v>638346</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4414990563910635</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4132762686420135</v>
+        <v>0.4146681179892524</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4672493364181138</v>
+        <v>0.4712058942374526</v>
       </c>
     </row>
     <row r="30">
@@ -2613,19 +2613,19 @@
         <v>87765</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>72187</v>
+        <v>70045</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>106891</v>
+        <v>106674</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1326147669591867</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.109077168790076</v>
+        <v>0.105840073353391</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.161515350072802</v>
+        <v>0.1611866101200393</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>95</v>
@@ -2634,19 +2634,19 @@
         <v>105173</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>86965</v>
+        <v>86703</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>127283</v>
+        <v>126272</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1517854937314471</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1255076016995612</v>
+        <v>0.125129445937272</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1836946323554324</v>
+        <v>0.1822360253284762</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>178</v>
@@ -2655,19 +2655,19 @@
         <v>192938</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>165803</v>
+        <v>168589</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>221820</v>
+        <v>222955</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.142420209541622</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1223905661868011</v>
+        <v>0.1244470725893986</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.163740069854338</v>
+        <v>0.1645781774095824</v>
       </c>
     </row>
     <row r="31">
@@ -2759,19 +2759,19 @@
         <v>547515</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>518534</v>
+        <v>520258</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>573459</v>
+        <v>573221</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7036838500111566</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6664367153162516</v>
+        <v>0.6686531285044048</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7370280505567106</v>
+        <v>0.736723002024345</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>523</v>
@@ -2780,19 +2780,19 @@
         <v>566277</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>540391</v>
+        <v>540813</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>593081</v>
+        <v>593977</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.688340561980391</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6568746658920848</v>
+        <v>0.6573876079091451</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7209224896688519</v>
+        <v>0.7220108734078698</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1029</v>
@@ -2801,19 +2801,19 @@
         <v>1113792</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1075290</v>
+        <v>1076276</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1153558</v>
+        <v>1150933</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.695798450358551</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6717459536327094</v>
+        <v>0.6723617142614016</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7206406439785289</v>
+        <v>0.7190010777808798</v>
       </c>
     </row>
     <row r="33">
@@ -2830,19 +2830,19 @@
         <v>177584</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>153213</v>
+        <v>154093</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>202903</v>
+        <v>204677</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2282372763472993</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1969140060407439</v>
+        <v>0.1980453950400316</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2607777141036489</v>
+        <v>0.263057369040976</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>184</v>
@@ -2851,19 +2851,19 @@
         <v>203933</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>180728</v>
+        <v>180480</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>228312</v>
+        <v>230472</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2478921871573948</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.219685204176909</v>
+        <v>0.2193837304274814</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2775251738925253</v>
+        <v>0.2801510128798724</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>344</v>
@@ -2872,19 +2872,19 @@
         <v>381518</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>347145</v>
+        <v>346100</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>416666</v>
+        <v>419258</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2383385549365527</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2168655044866107</v>
+        <v>0.2162123726491144</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2602957760405509</v>
+        <v>0.2619154335987646</v>
       </c>
     </row>
     <row r="34">
@@ -2901,19 +2901,19 @@
         <v>52970</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>40837</v>
+        <v>40261</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>70854</v>
+        <v>68874</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06807887364154409</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05248512654469403</v>
+        <v>0.0517446743770559</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.09106354181205061</v>
+        <v>0.08851922405872791</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>49</v>
@@ -2922,19 +2922,19 @@
         <v>52459</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>39487</v>
+        <v>39144</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>68736</v>
+        <v>67800</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06376725086221423</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04799819887090314</v>
+        <v>0.04758220810441496</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08355286926824235</v>
+        <v>0.08241498121578238</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>99</v>
@@ -2943,19 +2943,19 @@
         <v>105429</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>86382</v>
+        <v>86025</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>127492</v>
+        <v>126823</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.06586299470489629</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05396361876792693</v>
+        <v>0.05374059651070719</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.07964590313592933</v>
+        <v>0.07922806444304857</v>
       </c>
     </row>
     <row r="35">
@@ -3047,19 +3047,19 @@
         <v>1796962</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1732979</v>
+        <v>1731659</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1857665</v>
+        <v>1852071</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5256756711947308</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5069581440984481</v>
+        <v>0.50657213887653</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5434332395699636</v>
+        <v>0.5417969117217352</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1703</v>
@@ -3068,19 +3068,19 @@
         <v>1840410</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1777896</v>
+        <v>1782432</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1900121</v>
+        <v>1902323</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5194346907662244</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5017908358997141</v>
+        <v>0.5030713156604877</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.536287458036077</v>
+        <v>0.5369090484175388</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3376</v>
@@ -3089,19 +3089,19 @@
         <v>3637371</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3558016</v>
+        <v>3552670</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>3726257</v>
+        <v>3721044</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5224992773153929</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5111000339934109</v>
+        <v>0.5103320930241706</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5352674790518265</v>
+        <v>0.5345186722314305</v>
       </c>
     </row>
     <row r="37">
@@ -3118,19 +3118,19 @@
         <v>1189930</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1129041</v>
+        <v>1135896</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1250584</v>
+        <v>1252392</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.34809707311018</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3302849005750048</v>
+        <v>0.3322902315958866</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3658404606759024</v>
+        <v>0.3663695138018846</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1130</v>
@@ -3139,19 +3139,19 @@
         <v>1217933</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1154938</v>
+        <v>1157714</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1278249</v>
+        <v>1281491</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3437478112399983</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3259681379087938</v>
+        <v>0.3267517049848681</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.360771204295286</v>
+        <v>0.3616862390299574</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2247</v>
@@ -3160,19 +3160,19 @@
         <v>2407863</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2328195</v>
+        <v>2326098</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2494897</v>
+        <v>2490070</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3458834836041176</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3344394000775755</v>
+        <v>0.3341381543820544</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3583857327970378</v>
+        <v>0.3576922958243764</v>
       </c>
     </row>
     <row r="38">
@@ -3189,19 +3189,19 @@
         <v>431493</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>394363</v>
+        <v>394840</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>476815</v>
+        <v>475089</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1262272556950892</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1153653625210623</v>
+        <v>0.1155048688248957</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1394853820204447</v>
+        <v>0.1389806353625838</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>452</v>
@@ -3210,19 +3210,19 @@
         <v>484758</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>441518</v>
+        <v>443447</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>526637</v>
+        <v>529688</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1368174979937774</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1246135632868042</v>
+        <v>0.1251579569178093</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1486372096105522</v>
+        <v>0.1494983313696113</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>863</v>
@@ -3231,19 +3231,19 @@
         <v>916252</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>857500</v>
+        <v>863819</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>969830</v>
+        <v>978082</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1316172390804894</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.123177742355494</v>
+        <v>0.1240854598333372</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1393136675283442</v>
+        <v>0.1404990635097423</v>
       </c>
     </row>
     <row r="39">
@@ -3579,19 +3579,19 @@
         <v>139974</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>120272</v>
+        <v>123570</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>156838</v>
+        <v>158283</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.484782547834256</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4165481054011554</v>
+        <v>0.4279690350070273</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5431909964138766</v>
+        <v>0.5481939856566417</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>124</v>
@@ -3600,19 +3600,19 @@
         <v>124107</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>106929</v>
+        <v>107477</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>141129</v>
+        <v>140934</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4361698410897504</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3757988121466428</v>
+        <v>0.3777232695070372</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4959934299227354</v>
+        <v>0.4953062964167086</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>252</v>
@@ -3621,19 +3621,19 @@
         <v>264081</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>240691</v>
+        <v>236107</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>288640</v>
+        <v>287216</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4606541010254289</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4198526624482408</v>
+        <v>0.4118565361828271</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5034938586491554</v>
+        <v>0.5010092145289152</v>
       </c>
     </row>
     <row r="5">
@@ -3650,19 +3650,19 @@
         <v>98043</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>82767</v>
+        <v>80050</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>114216</v>
+        <v>115524</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3395604716380056</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2866545508923132</v>
+        <v>0.2772444128230229</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3955754907340174</v>
+        <v>0.4001050039703065</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>89</v>
@@ -3671,19 +3671,19 @@
         <v>92756</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>77314</v>
+        <v>76299</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>108948</v>
+        <v>108953</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3259881572331501</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2717157995005678</v>
+        <v>0.2681491581750273</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3828947647388962</v>
+        <v>0.3829098503297412</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>178</v>
@@ -3692,19 +3692,19 @@
         <v>190799</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>169044</v>
+        <v>167869</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>216375</v>
+        <v>214655</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3328239846550575</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2948749446039784</v>
+        <v>0.2928248438008426</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3774381022060649</v>
+        <v>0.3744362043330676</v>
       </c>
     </row>
     <row r="6">
@@ -3721,19 +3721,19 @@
         <v>50718</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>37472</v>
+        <v>38357</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>66270</v>
+        <v>66105</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1756569805277384</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1297814233140645</v>
+        <v>0.1328445216828224</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2295185034564753</v>
+        <v>0.2289457209984715</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>60</v>
@@ -3742,19 +3742,19 @@
         <v>67675</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>52603</v>
+        <v>53941</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>84199</v>
+        <v>84203</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2378420016770996</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1848725647057592</v>
+        <v>0.189573973834165</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2959136898041331</v>
+        <v>0.2959286155664662</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>104</v>
@@ -3763,19 +3763,19 @@
         <v>118394</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>99285</v>
+        <v>98237</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>140023</v>
+        <v>139046</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2065219143195136</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1731888278298623</v>
+        <v>0.1713617003256759</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2442508180395813</v>
+        <v>0.2425474562400731</v>
       </c>
     </row>
     <row r="7">
@@ -3867,19 +3867,19 @@
         <v>313882</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>292509</v>
+        <v>292635</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>335707</v>
+        <v>335813</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6258123204262307</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5832000971297033</v>
+        <v>0.5834511965529118</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6693261763614234</v>
+        <v>0.6695381621975177</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>295</v>
@@ -3888,19 +3888,19 @@
         <v>319581</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>296527</v>
+        <v>298510</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>340643</v>
+        <v>342866</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6133143755731445</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.569071032139557</v>
+        <v>0.5728763544533916</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6537349813186192</v>
+        <v>0.6580018680082262</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>587</v>
@@ -3909,19 +3909,19 @@
         <v>633463</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>602827</v>
+        <v>602660</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>669567</v>
+        <v>667247</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.619444111173905</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5894863384600578</v>
+        <v>0.5893230220096876</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6547489874439337</v>
+        <v>0.6524809692965741</v>
       </c>
     </row>
     <row r="9">
@@ -3938,19 +3938,19 @@
         <v>132482</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>113489</v>
+        <v>113539</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>153411</v>
+        <v>151973</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2641400743163844</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2262726824413946</v>
+        <v>0.2263712269121681</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3058689157413742</v>
+        <v>0.3030002896027834</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>123</v>
@@ -3959,19 +3959,19 @@
         <v>131408</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>112893</v>
+        <v>111525</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>151396</v>
+        <v>152633</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2521879383748484</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2166552543074277</v>
+        <v>0.21403047127614</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2905462773535023</v>
+        <v>0.2929209525047731</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>250</v>
@@ -3980,19 +3980,19 @@
         <v>263890</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>232074</v>
+        <v>234898</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>292817</v>
+        <v>293027</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2580499768177425</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2269377708332569</v>
+        <v>0.2296996165962608</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2863370490187494</v>
+        <v>0.2865419793044055</v>
       </c>
     </row>
     <row r="10">
@@ -4009,19 +4009,19 @@
         <v>55195</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43373</v>
+        <v>42468</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>70636</v>
+        <v>69852</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1100476052573849</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08647669808921266</v>
+        <v>0.08467275982364562</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1408329611183467</v>
+        <v>0.1392707341603956</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>64</v>
@@ -4030,19 +4030,19 @@
         <v>70083</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>55363</v>
+        <v>54139</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>87730</v>
+        <v>86745</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1344976860520071</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1062492005396177</v>
+        <v>0.1038987731951054</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1683636729497278</v>
+        <v>0.166474275147522</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>119</v>
@@ -4051,19 +4051,19 @@
         <v>125278</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>106149</v>
+        <v>104451</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>148646</v>
+        <v>147779</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1225059120083525</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1037999625557869</v>
+        <v>0.1021394650621763</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1453562924648019</v>
+        <v>0.1445088593696578</v>
       </c>
     </row>
     <row r="11">
@@ -4155,19 +4155,19 @@
         <v>214173</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>196614</v>
+        <v>198665</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>230120</v>
+        <v>230669</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6723064016385354</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6171870956575906</v>
+        <v>0.6236262519125172</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7223656591733626</v>
+        <v>0.7240870498416141</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>237</v>
@@ -4176,19 +4176,19 @@
         <v>239522</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>222994</v>
+        <v>222141</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>255208</v>
+        <v>255787</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7141245027077986</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6648472200389756</v>
+        <v>0.6623020065463234</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7608904307634102</v>
+        <v>0.7626166601563</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>465</v>
@@ -4197,19 +4197,19 @@
         <v>453696</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>430631</v>
+        <v>429266</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>477529</v>
+        <v>476517</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6937539444198485</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.658486086649929</v>
+        <v>0.6563985884389915</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7301979144028736</v>
+        <v>0.7286508980013734</v>
       </c>
     </row>
     <row r="13">
@@ -4226,19 +4226,19 @@
         <v>92240</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>77478</v>
+        <v>76380</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108934</v>
+        <v>107691</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2895474273012888</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2432104189638637</v>
+        <v>0.2397640647235855</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.341952363024399</v>
+        <v>0.3380507347805924</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>84</v>
@@ -4247,19 +4247,19 @@
         <v>85935</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>71270</v>
+        <v>71420</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>103169</v>
+        <v>102977</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2562104485798716</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2124866565173406</v>
+        <v>0.2129348033278282</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3075926920320903</v>
+        <v>0.3070214282853808</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>178</v>
@@ -4268,19 +4268,19 @@
         <v>178174</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>155558</v>
+        <v>155596</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>201068</v>
+        <v>202747</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2724496572197857</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2378661781610376</v>
+        <v>0.2379245172225825</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3074559279054553</v>
+        <v>0.310024143716924</v>
       </c>
     </row>
     <row r="14">
@@ -4297,19 +4297,19 @@
         <v>12152</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6832</v>
+        <v>7424</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20781</v>
+        <v>20055</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03814617106017578</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02144620286327001</v>
+        <v>0.023304229459148</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06523400214668533</v>
+        <v>0.06295534556129852</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -4318,19 +4318,19 @@
         <v>9950</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4591</v>
+        <v>4694</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17455</v>
+        <v>17672</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02966504871232988</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01368716510460453</v>
+        <v>0.01399535770057827</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0520410981075943</v>
+        <v>0.05268832711654144</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -4339,19 +4339,19 @@
         <v>22102</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13973</v>
+        <v>14381</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>33275</v>
+        <v>32835</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0337963983603658</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02136620896225117</v>
+        <v>0.02199099830872436</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0508820617173554</v>
+        <v>0.0502092610767312</v>
       </c>
     </row>
     <row r="15">
@@ -4443,19 +4443,19 @@
         <v>262839</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>246219</v>
+        <v>245118</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>280494</v>
+        <v>279695</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7195125874968967</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6740180620973867</v>
+        <v>0.6710022967860862</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7678428364895705</v>
+        <v>0.7656554702627978</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>249</v>
@@ -4464,19 +4464,19 @@
         <v>269474</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>249283</v>
+        <v>250969</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>286781</v>
+        <v>287360</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6994907745236825</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.647079150319226</v>
+        <v>0.6514575420816195</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7444162787340678</v>
+        <v>0.7459185369338526</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>501</v>
@@ -4485,19 +4485,19 @@
         <v>532313</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>505753</v>
+        <v>509337</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>556392</v>
+        <v>560639</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.709235690261049</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6738481346253796</v>
+        <v>0.6786228659086986</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7413176736880214</v>
+        <v>0.7469764145444806</v>
       </c>
     </row>
     <row r="17">
@@ -4514,19 +4514,19 @@
         <v>62768</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>48770</v>
+        <v>48394</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>78194</v>
+        <v>77799</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1718249248918168</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1335076627255235</v>
+        <v>0.1324769726723679</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.214052577102154</v>
+        <v>0.2129714009943131</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>61</v>
@@ -4535,19 +4535,19 @@
         <v>66223</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>51350</v>
+        <v>51995</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>83098</v>
+        <v>80824</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1718985680769354</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1332916658169007</v>
+        <v>0.1349668635098665</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2157027651846772</v>
+        <v>0.2097987963563676</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>120</v>
@@ -4556,19 +4556,19 @@
         <v>128991</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>107888</v>
+        <v>108272</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>151615</v>
+        <v>150501</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1718627248376357</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1437467856158359</v>
+        <v>0.1442583103490628</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2020061130941661</v>
+        <v>0.2005218537724461</v>
       </c>
     </row>
     <row r="18">
@@ -4585,19 +4585,19 @@
         <v>39695</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>28748</v>
+        <v>28647</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>52438</v>
+        <v>51901</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1086624876112865</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07869680062899424</v>
+        <v>0.07842026142784654</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1435468445953829</v>
+        <v>0.14207762521734</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>46</v>
@@ -4606,19 +4606,19 @@
         <v>49546</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>37253</v>
+        <v>36512</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>65432</v>
+        <v>65070</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1286106573993821</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09670055481812831</v>
+        <v>0.09477688226232833</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1698461057187359</v>
+        <v>0.1689057974687026</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>85</v>
@@ -4627,19 +4627,19 @@
         <v>89241</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>73043</v>
+        <v>71971</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>110036</v>
+        <v>110168</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1189015849013152</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09731940004740224</v>
+        <v>0.09589177032597579</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1466086125181603</v>
+        <v>0.1467846071681538</v>
       </c>
     </row>
     <row r="19">
@@ -4731,19 +4731,19 @@
         <v>127475</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>114038</v>
+        <v>113587</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>141286</v>
+        <v>140487</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6035125403300233</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5399007747353926</v>
+        <v>0.5377654619566037</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6689017380652638</v>
+        <v>0.6651181968667038</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>156</v>
@@ -4755,16 +4755,16 @@
         <v>137544</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>163973</v>
+        <v>164591</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6956661779548522</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6292400406063386</v>
+        <v>0.6292413774217912</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7501515777674894</v>
+        <v>0.7529768493548398</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>286</v>
@@ -4773,19 +4773,19 @@
         <v>279538</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>260065</v>
+        <v>259261</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>298690</v>
+        <v>298154</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6503790185461188</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.605072856156417</v>
+        <v>0.603201156872104</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6949374978119572</v>
+        <v>0.6936921929312155</v>
       </c>
     </row>
     <row r="21">
@@ -4802,19 +4802,19 @@
         <v>66156</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>53436</v>
+        <v>54636</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>80046</v>
+        <v>81584</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3132059634241884</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2529861061472357</v>
+        <v>0.2586676078988537</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3789657117161978</v>
+        <v>0.3862475612871704</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>45</v>
@@ -4823,19 +4823,19 @@
         <v>44531</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>33904</v>
+        <v>33171</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>58077</v>
+        <v>57672</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2037201150830073</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1551055369126623</v>
+        <v>0.1517507651109478</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2656933259709546</v>
+        <v>0.2638378259467614</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>109</v>
@@ -4844,19 +4844,19 @@
         <v>110686</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>92596</v>
+        <v>94094</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>130225</v>
+        <v>129662</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.257524861098715</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2154355701885885</v>
+        <v>0.2189204864252971</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3029844310667928</v>
+        <v>0.3016747098062163</v>
       </c>
     </row>
     <row r="22">
@@ -4873,19 +4873,19 @@
         <v>17591</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10290</v>
+        <v>10825</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26743</v>
+        <v>28271</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08328149624578826</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04871457705655744</v>
+        <v>0.0512496491120515</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1266091022877044</v>
+        <v>0.1338440543269787</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -4894,19 +4894,19 @@
         <v>21993</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14495</v>
+        <v>14303</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>31328</v>
+        <v>33599</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1006137069621405</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06631442882850007</v>
+        <v>0.0654351009455046</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1433222724882311</v>
+        <v>0.153711613960433</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>40</v>
@@ -4915,19 +4915,19 @@
         <v>39584</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28494</v>
+        <v>29526</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>52157</v>
+        <v>53548</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09209612035516623</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06629575006679396</v>
+        <v>0.06869675108868242</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1213489599930363</v>
+        <v>0.1245856155077998</v>
       </c>
     </row>
     <row r="23">
@@ -5019,19 +5019,19 @@
         <v>189335</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>173746</v>
+        <v>174092</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>203677</v>
+        <v>203135</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7307596747633522</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6705941483305142</v>
+        <v>0.6719290681473856</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7861164882506663</v>
+        <v>0.784022788251531</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>194</v>
@@ -5040,19 +5040,19 @@
         <v>200323</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>184360</v>
+        <v>184175</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>214573</v>
+        <v>215206</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7362651470769015</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6775963778064338</v>
+        <v>0.6769156869947314</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7886402199444357</v>
+        <v>0.7909648853137886</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>380</v>
@@ -5061,19 +5061,19 @@
         <v>389658</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>366519</v>
+        <v>369450</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>407947</v>
+        <v>410576</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7335797124788053</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6900184252806788</v>
+        <v>0.6955365140797044</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7680121687596695</v>
+        <v>0.7729605684478015</v>
       </c>
     </row>
     <row r="25">
@@ -5090,19 +5090,19 @@
         <v>51131</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>39009</v>
+        <v>39241</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>65614</v>
+        <v>65491</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1973442574301028</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1505590905694239</v>
+        <v>0.1514550547463867</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2532444730928963</v>
+        <v>0.2527684112346417</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>45</v>
@@ -5111,19 +5111,19 @@
         <v>48477</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>35860</v>
+        <v>35656</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>62554</v>
+        <v>64305</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1781704961487064</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1317989044034955</v>
+        <v>0.131050095351489</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2299092132230397</v>
+        <v>0.2363457018415099</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>95</v>
@@ -5132,19 +5132,19 @@
         <v>99607</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>82583</v>
+        <v>81151</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>120082</v>
+        <v>118509</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1875229874497672</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.155472923824987</v>
+        <v>0.1527778293697682</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2260693650643395</v>
+        <v>0.2231082919742122</v>
       </c>
     </row>
     <row r="26">
@@ -5161,19 +5161,19 @@
         <v>18628</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12055</v>
+        <v>11454</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>28240</v>
+        <v>27468</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07189606780654496</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0465292950770175</v>
+        <v>0.04420702395638844</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1089956330312839</v>
+        <v>0.1060161619050968</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>23</v>
@@ -5182,19 +5182,19 @@
         <v>23280</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>15019</v>
+        <v>14524</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>34285</v>
+        <v>33715</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08556435677439207</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05519966077746014</v>
+        <v>0.05338144350665428</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1260106000799152</v>
+        <v>0.1239147730962863</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>42</v>
@@ -5203,19 +5203,19 @@
         <v>41908</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>30682</v>
+        <v>30570</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>56747</v>
+        <v>55085</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07889730007142758</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0577619009858627</v>
+        <v>0.0575522808959215</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1068326396139073</v>
+        <v>0.1037039283992784</v>
       </c>
     </row>
     <row r="27">
@@ -5307,19 +5307,19 @@
         <v>340054</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>309654</v>
+        <v>312352</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>366216</v>
+        <v>369016</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5186542639489734</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4722881037946983</v>
+        <v>0.4764027790861927</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5585572443292089</v>
+        <v>0.5628283468441676</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>319</v>
@@ -5328,19 +5328,19 @@
         <v>339985</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>314982</v>
+        <v>313398</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>365962</v>
+        <v>367564</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4948660454012128</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4584729972240023</v>
+        <v>0.4561674088037088</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5326766574552392</v>
+        <v>0.5350082402639597</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>619</v>
@@ -5349,19 +5349,19 @@
         <v>680038</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>644026</v>
+        <v>641437</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>718914</v>
+        <v>714880</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5064821923100066</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4796606177966554</v>
+        <v>0.4777326704533835</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5354363187930267</v>
+        <v>0.5324316605773417</v>
       </c>
     </row>
     <row r="29">
@@ -5378,19 +5378,19 @@
         <v>222875</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>197769</v>
+        <v>196680</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>250448</v>
+        <v>249125</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3399323627808937</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3016404536327441</v>
+        <v>0.2999788353891076</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3819872162166551</v>
+        <v>0.3799688298083808</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>206</v>
@@ -5399,19 +5399,19 @@
         <v>217171</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>193848</v>
+        <v>192830</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>242432</v>
+        <v>241337</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3161042477333894</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.28215622708698</v>
+        <v>0.2806747011546141</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3528727920289458</v>
+        <v>0.3512785013978026</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>402</v>
@@ -5420,19 +5420,19 @@
         <v>440047</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>405502</v>
+        <v>404778</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>475717</v>
+        <v>475780</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3277398767064344</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3020118588608956</v>
+        <v>0.3014724543985683</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3543068645480135</v>
+        <v>0.3543539731124491</v>
       </c>
     </row>
     <row r="30">
@@ -5449,19 +5449,19 @@
         <v>92717</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>76215</v>
+        <v>74904</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>113102</v>
+        <v>112549</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.141413373270133</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1162436307694351</v>
+        <v>0.1142449041240684</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1725039845396037</v>
+        <v>0.1716607375861447</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>117</v>
@@ -5470,19 +5470,19 @@
         <v>129868</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>108964</v>
+        <v>108914</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>151170</v>
+        <v>153539</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1890297068653978</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1586032334154145</v>
+        <v>0.1585308310549652</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2200366827574538</v>
+        <v>0.2234835711288823</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>200</v>
@@ -5491,19 +5491,19 @@
         <v>222585</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>196292</v>
+        <v>198589</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>252741</v>
+        <v>255787</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.165777930983559</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1461950678627454</v>
+        <v>0.1479057114944832</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1882373374997805</v>
+        <v>0.1905063996461623</v>
       </c>
     </row>
     <row r="31">
@@ -5595,19 +5595,19 @@
         <v>621448</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>597565</v>
+        <v>597387</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>642157</v>
+        <v>642858</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7981778006799499</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7675026899160887</v>
+        <v>0.7672748819527303</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8247763050189192</v>
+        <v>0.8256774415687155</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>608</v>
@@ -5616,19 +5616,19 @@
         <v>663054</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>638243</v>
+        <v>641354</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>685930</v>
+        <v>686760</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8063473015627814</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7761740762674467</v>
+        <v>0.7799585829101161</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8341678794678805</v>
+        <v>0.8351766161650189</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1204</v>
@@ -5637,19 +5637,19 @@
         <v>1284501</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1252122</v>
+        <v>1251246</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1317933</v>
+        <v>1316105</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8023740795395441</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7821479720235676</v>
+        <v>0.7816007259697582</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.823257199668108</v>
+        <v>0.8221155618977588</v>
       </c>
     </row>
     <row r="33">
@@ -5666,19 +5666,19 @@
         <v>108506</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>90633</v>
+        <v>88916</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>129741</v>
+        <v>128414</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1393640425976028</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1164072983917526</v>
+        <v>0.1142023904947655</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1666369906125561</v>
+        <v>0.1649330404035426</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>109</v>
@@ -5687,19 +5687,19 @@
         <v>120155</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>99657</v>
+        <v>99877</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>141775</v>
+        <v>140144</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1461222221286279</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1211939806371539</v>
+        <v>0.1214621385342511</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1724144007615531</v>
+        <v>0.1704309344630363</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>216</v>
@@ -5708,19 +5708,19 @@
         <v>228662</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>199232</v>
+        <v>200338</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>256196</v>
+        <v>257770</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.142835393699967</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1244518159443477</v>
+        <v>0.1251425106675232</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1600348649305055</v>
+        <v>0.1610178812380484</v>
       </c>
     </row>
     <row r="34">
@@ -5737,19 +5737,19 @@
         <v>48629</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>36208</v>
+        <v>36409</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>64965</v>
+        <v>64544</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06245815672244732</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04650461067947282</v>
+        <v>0.0467625821638271</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08344013581708386</v>
+        <v>0.08289935628551384</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>35</v>
@@ -5758,19 +5758,19 @@
         <v>39084</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>28033</v>
+        <v>27920</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>55236</v>
+        <v>54813</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04753047630859066</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03409140218840355</v>
+        <v>0.03395380004365418</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06717363902584143</v>
+        <v>0.06665884507193996</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>82</v>
@@ -5779,19 +5779,19 @@
         <v>87713</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>69748</v>
+        <v>69885</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>107353</v>
+        <v>105776</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.054790526760489</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.04356870804845221</v>
+        <v>0.04365393282860448</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06705921253169264</v>
+        <v>0.0660736236266353</v>
       </c>
     </row>
     <row r="35">
@@ -5883,19 +5883,19 @@
         <v>2209179</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2154615</v>
+        <v>2151178</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2267242</v>
+        <v>2266554</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.6538538539363146</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.6377044840372879</v>
+        <v>0.6366872156454708</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6710389559939806</v>
+        <v>0.6708354661014242</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2182</v>
@@ -5904,19 +5904,19 @@
         <v>2308110</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2254578</v>
+        <v>2242659</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2369215</v>
+        <v>2356425</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.654551726423493</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.6393707902999723</v>
+        <v>0.6359907465972054</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6718804711892964</v>
+        <v>0.6682532141897825</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4294</v>
@@ -5925,19 +5925,19 @@
         <v>4517288</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4439469</v>
+        <v>4434038</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4602705</v>
+        <v>4594237</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.6542102460757706</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.6429401296433966</v>
+        <v>0.6421535822020299</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.6665805876095303</v>
+        <v>0.665354160295683</v>
       </c>
     </row>
     <row r="37">
@@ -5954,19 +5954,19 @@
         <v>834200</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>780101</v>
+        <v>782119</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>885742</v>
+        <v>887512</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2468995485229802</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2308877081372305</v>
+        <v>0.2314850306233319</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2621544549919323</v>
+        <v>0.2626782510289267</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>762</v>
@@ -5975,19 +5975,19 @@
         <v>806656</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>758299</v>
+        <v>761692</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>861447</v>
+        <v>862855</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2287576755365146</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.215044460154565</v>
+        <v>0.2160066832057183</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.244295865999957</v>
+        <v>0.2446950491819385</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1548</v>
@@ -5996,19 +5996,19 @@
         <v>1640856</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1563845</v>
+        <v>1578561</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1710943</v>
+        <v>1718385</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2376347887765021</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2264817791953571</v>
+        <v>0.2286129225782681</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2477850881856376</v>
+        <v>0.2488628467009869</v>
       </c>
     </row>
     <row r="38">
@@ -6025,19 +6025,19 @@
         <v>335325</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>301694</v>
+        <v>299768</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>373409</v>
+        <v>369970</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.09924659754070522</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.08929268459894601</v>
+        <v>0.08872270090245676</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1105184670265303</v>
+        <v>0.1095005953473307</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>377</v>
@@ -6046,19 +6046,19 @@
         <v>411480</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>370752</v>
+        <v>375889</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>450535</v>
+        <v>456161</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1166905980399923</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1051408066763257</v>
+        <v>0.1065976286329988</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1277661851071534</v>
+        <v>0.1293615610354924</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>695</v>
@@ -6067,19 +6067,19 @@
         <v>746805</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>699185</v>
+        <v>694821</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>806327</v>
+        <v>800290</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1081549651477273</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1012585991592982</v>
+        <v>0.1006265075359082</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1167752264480055</v>
+        <v>0.1159009151423893</v>
       </c>
     </row>
     <row r="39">
@@ -6415,19 +6415,19 @@
         <v>295596</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>284431</v>
+        <v>285813</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>302988</v>
+        <v>303284</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9270850357035776</v>
+        <v>0.9270850357035777</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8920655245817399</v>
+        <v>0.8964016119316048</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9502683906024022</v>
+        <v>0.9511949598791376</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>513</v>
@@ -6436,19 +6436,19 @@
         <v>301991</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>295675</v>
+        <v>295158</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>306395</v>
+        <v>307016</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9554847817220913</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9355006106986599</v>
+        <v>0.93386432684941</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9694180955171828</v>
+        <v>0.9713808079071632</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>819</v>
@@ -6457,19 +6457,19 @@
         <v>597588</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>585456</v>
+        <v>585085</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>606961</v>
+        <v>607055</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9412226293952679</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9221142928138313</v>
+        <v>0.921530128322809</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9559860436459096</v>
+        <v>0.9561343065008061</v>
       </c>
     </row>
     <row r="5">
@@ -6486,19 +6486,19 @@
         <v>17384</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11096</v>
+        <v>11045</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26411</v>
+        <v>24863</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.05452101958885674</v>
+        <v>0.05452101958885675</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0347992465332445</v>
+        <v>0.03463949312440762</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08283470280040392</v>
+        <v>0.07797713904220085</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -6507,19 +6507,19 @@
         <v>9084</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5497</v>
+        <v>5202</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15439</v>
+        <v>15335</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02874257354560875</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01739229011837721</v>
+        <v>0.01645730331952469</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04884865168095771</v>
+        <v>0.04851791395796776</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -6528,19 +6528,19 @@
         <v>26468</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>18475</v>
+        <v>18707</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>36970</v>
+        <v>36486</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.041688327496293</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02909850587187297</v>
+        <v>0.02946391925463107</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05822907211109368</v>
+        <v>0.05746607850952427</v>
       </c>
     </row>
     <row r="6">
@@ -6557,19 +6557,19 @@
         <v>5865</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2028</v>
+        <v>1966</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13421</v>
+        <v>13481</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01839394470756564</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.00636054595003005</v>
+        <v>0.00616733635453454</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04209362595203999</v>
+        <v>0.04227994349993554</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -6578,19 +6578,19 @@
         <v>4985</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2463</v>
+        <v>2376</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9037</v>
+        <v>9101</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0157726447323</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007791415149289327</v>
+        <v>0.007516582979446925</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02859400677876612</v>
+        <v>0.02879378874834137</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -6599,19 +6599,19 @@
         <v>10850</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6141</v>
+        <v>5689</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>19207</v>
+        <v>19108</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0170890431084392</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009672248039572125</v>
+        <v>0.008960570772420009</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03025157540493402</v>
+        <v>0.03009570180542411</v>
       </c>
     </row>
     <row r="7">
@@ -6703,19 +6703,19 @@
         <v>427485</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>403480</v>
+        <v>404687</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>448666</v>
+        <v>446058</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8055928748925426</v>
+        <v>0.8055928748925427</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7603546300879006</v>
+        <v>0.7626301178429359</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8455068000437999</v>
+        <v>0.840592061718745</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>576</v>
@@ -6724,19 +6724,19 @@
         <v>436271</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>416229</v>
+        <v>418457</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>452088</v>
+        <v>452971</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7983088266997563</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7616343891427553</v>
+        <v>0.7657126885353484</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8272512326921221</v>
+        <v>0.828866837800321</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>880</v>
@@ -6745,19 +6745,19 @@
         <v>863756</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>834033</v>
+        <v>834954</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>889795</v>
+        <v>890318</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8018972678617797</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7743025217818224</v>
+        <v>0.7751578787224565</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8260714002151857</v>
+        <v>0.8265561791584336</v>
       </c>
     </row>
     <row r="9">
@@ -6774,19 +6774,19 @@
         <v>79361</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>61146</v>
+        <v>62177</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>101076</v>
+        <v>101471</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1495553466640345</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1152297759822641</v>
+        <v>0.1171720946539967</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1904767001757412</v>
+        <v>0.1912212219082986</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>109</v>
@@ -6795,19 +6795,19 @@
         <v>87698</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>72846</v>
+        <v>72835</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>106229</v>
+        <v>105474</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.160474099391457</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1332978161874685</v>
+        <v>0.133277556377732</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1943833274531846</v>
+        <v>0.193000498633952</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>170</v>
@@ -6816,19 +6816,19 @@
         <v>167059</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>143413</v>
+        <v>144708</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>193695</v>
+        <v>196553</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1550950435851212</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1331426796338301</v>
+        <v>0.1343444419688289</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1798228468193417</v>
+        <v>0.1824763150107375</v>
       </c>
     </row>
     <row r="10">
@@ -6845,19 +6845,19 @@
         <v>23800</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13827</v>
+        <v>13794</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38307</v>
+        <v>38148</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04485177844342283</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02605700616612816</v>
+        <v>0.02599499748385088</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07218923942881628</v>
+        <v>0.0718900465365552</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -6866,19 +6866,19 @@
         <v>22525</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15953</v>
+        <v>15556</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31574</v>
+        <v>32066</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04121707390878665</v>
+        <v>0.04121707390878664</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02919138675889487</v>
+        <v>0.02846529268143637</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05777505367732914</v>
+        <v>0.05867630437383017</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>49</v>
@@ -6887,19 +6887,19 @@
         <v>46325</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33691</v>
+        <v>34166</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62927</v>
+        <v>63076</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04300768855309917</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03127806976678953</v>
+        <v>0.03171872449862065</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05842016985782417</v>
+        <v>0.05855826896042782</v>
       </c>
     </row>
     <row r="11">
@@ -6991,19 +6991,19 @@
         <v>225430</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>207861</v>
+        <v>208272</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>240087</v>
+        <v>240355</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7171178602786491</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.661231335759377</v>
+        <v>0.662537904596133</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7637447212118572</v>
+        <v>0.7645978942156924</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>413</v>
@@ -7012,19 +7012,19 @@
         <v>273774</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>258923</v>
+        <v>260509</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>285655</v>
+        <v>287072</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7682071369221083</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7265353880459482</v>
+        <v>0.730983256768602</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8015430094934395</v>
+        <v>0.8055192179822268</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>672</v>
@@ -7033,19 +7033,19 @@
         <v>499204</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>474207</v>
+        <v>479766</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>516199</v>
+        <v>517982</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7442630598795076</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7069943892386449</v>
+        <v>0.7152836451877091</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7696004160593569</v>
+        <v>0.7722597370674854</v>
       </c>
     </row>
     <row r="13">
@@ -7062,19 +7062,19 @@
         <v>52283</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39977</v>
+        <v>40302</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66920</v>
+        <v>67582</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1663197727368709</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1271699676695341</v>
+        <v>0.1282048663732761</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2128803825536249</v>
+        <v>0.2149871166476971</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>68</v>
@@ -7083,19 +7083,19 @@
         <v>45799</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37246</v>
+        <v>36114</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57789</v>
+        <v>57296</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1285125884846682</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1045130695076118</v>
+        <v>0.1013365883716418</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1621562156264013</v>
+        <v>0.1607724239038658</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>124</v>
@@ -7104,19 +7104,19 @@
         <v>98083</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>81025</v>
+        <v>81996</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>117333</v>
+        <v>116529</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1462317301905909</v>
+        <v>0.1462317301905908</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1208003570517776</v>
+        <v>0.1222480067529119</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1749314795604226</v>
+        <v>0.1737333613098442</v>
       </c>
     </row>
     <row r="14">
@@ -7133,19 +7133,19 @@
         <v>36642</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>26821</v>
+        <v>26997</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>48639</v>
+        <v>48838</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1165623669844801</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08532204613252423</v>
+        <v>0.08588038224563997</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.154725666020686</v>
+        <v>0.1553585975961357</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>55</v>
@@ -7154,19 +7154,19 @@
         <v>36807</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>27263</v>
+        <v>27972</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>47350</v>
+        <v>47366</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1032802745932235</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07649906443842454</v>
+        <v>0.0784884712204006</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1328630355244029</v>
+        <v>0.1329082449446352</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>98</v>
@@ -7175,19 +7175,19 @@
         <v>73449</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>60494</v>
+        <v>59289</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>88951</v>
+        <v>86762</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1095052099299015</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09019107998505065</v>
+        <v>0.08839342995841673</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1326170999490922</v>
+        <v>0.1293530914766091</v>
       </c>
     </row>
     <row r="15">
@@ -7279,19 +7279,19 @@
         <v>277696</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>253396</v>
+        <v>255258</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>296284</v>
+        <v>296039</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7442052443646554</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6790820182045975</v>
+        <v>0.6840721434103324</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7940172135538466</v>
+        <v>0.7933623187732586</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>417</v>
@@ -7300,19 +7300,19 @@
         <v>298936</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>280090</v>
+        <v>280517</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>317077</v>
+        <v>315907</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.709596093171502</v>
+        <v>0.7095960931715021</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6648612925912716</v>
+        <v>0.6658747006016573</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7526579498172179</v>
+        <v>0.749880865962737</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>613</v>
@@ -7321,19 +7321,19 @@
         <v>576632</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>546447</v>
+        <v>546209</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>599760</v>
+        <v>602929</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7258522516053779</v>
+        <v>0.7258522516053778</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6878559869692654</v>
+        <v>0.6875561772908312</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7549644002691999</v>
+        <v>0.7589540942513788</v>
       </c>
     </row>
     <row r="17">
@@ -7350,19 +7350,19 @@
         <v>47907</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>34124</v>
+        <v>34800</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>65623</v>
+        <v>64843</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1283864826392567</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09144905390774766</v>
+        <v>0.09326078231001812</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1758641050984963</v>
+        <v>0.1737736345728641</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>103</v>
@@ -7371,19 +7371,19 @@
         <v>70895</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>57550</v>
+        <v>57602</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>86170</v>
+        <v>86381</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1682863052098967</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1366094266838504</v>
+        <v>0.1367318366816399</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2045442261167991</v>
+        <v>0.2050465877709121</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>151</v>
@@ -7392,19 +7392,19 @@
         <v>118802</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>98900</v>
+        <v>100067</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>142112</v>
+        <v>144039</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1495450817233127</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1244937924640071</v>
+        <v>0.1259619234881215</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1788874130515605</v>
+        <v>0.1813134709108194</v>
       </c>
     </row>
     <row r="18">
@@ -7421,19 +7421,19 @@
         <v>47542</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>33132</v>
+        <v>34629</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>65510</v>
+        <v>65634</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1274082729960879</v>
+        <v>0.127408272996088</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08879169864276817</v>
+        <v>0.09280203313118478</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1755613057294902</v>
+        <v>0.175895208770186</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>78</v>
@@ -7442,19 +7442,19 @@
         <v>51445</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>40080</v>
+        <v>39662</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>68006</v>
+        <v>65877</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.1221176016186014</v>
+        <v>0.1221176016186013</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09514059044674274</v>
+        <v>0.09414776032970662</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1614296620626829</v>
+        <v>0.1563760043505011</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>126</v>
@@ -7463,19 +7463,19 @@
         <v>98987</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>81287</v>
+        <v>81011</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>120662</v>
+        <v>123105</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1246026666713094</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1023219625420067</v>
+        <v>0.1019753778899262</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1518866024980111</v>
+        <v>0.1549614391303597</v>
       </c>
     </row>
     <row r="19">
@@ -7567,19 +7567,19 @@
         <v>164379</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>152794</v>
+        <v>153244</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>174195</v>
+        <v>173768</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7992562544679886</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7429255982907286</v>
+        <v>0.7451152264032705</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8469828680443212</v>
+        <v>0.8449098705599339</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>401</v>
@@ -7588,19 +7588,19 @@
         <v>181297</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>169643</v>
+        <v>171641</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>189946</v>
+        <v>190157</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7919756807234064</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7410648315769256</v>
+        <v>0.7497945911705709</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8297559541156053</v>
+        <v>0.8306795389085488</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>626</v>
@@ -7609,19 +7609,19 @@
         <v>345676</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>331644</v>
+        <v>331479</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>358314</v>
+        <v>359209</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7954211894852964</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7631325821404462</v>
+        <v>0.7627530160482171</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8245024816177827</v>
+        <v>0.8265628823003093</v>
       </c>
     </row>
     <row r="21">
@@ -7638,19 +7638,19 @@
         <v>32913</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>24767</v>
+        <v>24617</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>43598</v>
+        <v>42336</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1600327483019549</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1204242488689538</v>
+        <v>0.1196952377936127</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2119857755333122</v>
+        <v>0.2058496516324034</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>87</v>
@@ -7659,19 +7659,19 @@
         <v>44323</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>35655</v>
+        <v>35882</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>54705</v>
+        <v>54419</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1936196611579803</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1557522853119856</v>
+        <v>0.156746318999504</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2389725234493333</v>
+        <v>0.2377222272376314</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>132</v>
@@ -7680,19 +7680,19 @@
         <v>77236</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>65660</v>
+        <v>64250</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>90575</v>
+        <v>90349</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1777247596584405</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1510875558596498</v>
+        <v>0.1478439200571616</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.208418071081453</v>
+        <v>0.2078991431085294</v>
       </c>
     </row>
     <row r="22">
@@ -7709,19 +7709,19 @@
         <v>8373</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3863</v>
+        <v>4138</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16043</v>
+        <v>16919</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04071099723005648</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01878532429152213</v>
+        <v>0.02012104800327185</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07800716337451685</v>
+        <v>0.08226534615613613</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -7730,19 +7730,19 @@
         <v>3297</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1334</v>
+        <v>1314</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6257</v>
+        <v>6834</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01440465811861334</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005828832349541319</v>
+        <v>0.005740766882302562</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02733311357939082</v>
+        <v>0.02985422883825974</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -7751,19 +7751,19 @@
         <v>11670</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6597</v>
+        <v>6727</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19487</v>
+        <v>19283</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02685405085626323</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01517945146318694</v>
+        <v>0.01547903360280522</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04484176943032053</v>
+        <v>0.04437235461961547</v>
       </c>
     </row>
     <row r="23">
@@ -7855,19 +7855,19 @@
         <v>194135</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>178674</v>
+        <v>179990</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>205732</v>
+        <v>207065</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7171416091637679</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6600270318899527</v>
+        <v>0.6648883508136595</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7599802946357379</v>
+        <v>0.7649031523349723</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>333</v>
@@ -7876,19 +7876,19 @@
         <v>193601</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>182512</v>
+        <v>182055</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>204363</v>
+        <v>205584</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.7340322969613523</v>
+        <v>0.734032296961352</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6919872563417643</v>
+        <v>0.6902540821252725</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7748377722930359</v>
+        <v>0.7794669995578128</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>597</v>
@@ -7897,19 +7897,19 @@
         <v>387736</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>367032</v>
+        <v>368631</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>404163</v>
+        <v>403663</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7254770254401101</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6867376687878515</v>
+        <v>0.6897293287905492</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7562123376435508</v>
+        <v>0.7552776033980381</v>
       </c>
     </row>
     <row r="25">
@@ -7926,19 +7926,19 @@
         <v>46556</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37193</v>
+        <v>36395</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>60636</v>
+        <v>58102</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1719804637747155</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1373918004330778</v>
+        <v>0.1344439557717652</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2239927259057792</v>
+        <v>0.2146317911479015</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>57</v>
@@ -7947,19 +7947,19 @@
         <v>31131</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23962</v>
+        <v>23823</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39249</v>
+        <v>40301</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1180331272078333</v>
+        <v>0.1180331272078332</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09085033789908868</v>
+        <v>0.0903260220899285</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1488131100795307</v>
+        <v>0.1527989179855709</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>123</v>
@@ -7968,19 +7968,19 @@
         <v>77688</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>65249</v>
+        <v>65731</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>94289</v>
+        <v>91801</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.145357894423264</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1220839841597472</v>
+        <v>0.1229871490989707</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1764206842199432</v>
+        <v>0.1717653714213775</v>
       </c>
     </row>
     <row r="26">
@@ -7997,19 +7997,19 @@
         <v>30015</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>22043</v>
+        <v>22177</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>40385</v>
+        <v>40484</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1108779270615167</v>
+        <v>0.1108779270615166</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0814277078628354</v>
+        <v>0.08192259200485311</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1491851624462008</v>
+        <v>0.1495491333726913</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>70</v>
@@ -8018,19 +8018,19 @@
         <v>39018</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>31196</v>
+        <v>30242</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>48296</v>
+        <v>49226</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1479345758308147</v>
+        <v>0.1479345758308146</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1182790800378418</v>
+        <v>0.1146604586613753</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1831129296866925</v>
+        <v>0.1866396916975265</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>111</v>
@@ -8039,19 +8039,19 @@
         <v>69033</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>56835</v>
+        <v>56169</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>82576</v>
+        <v>83268</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1291650801366259</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1063407133466431</v>
+        <v>0.1050946814938663</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.154503605812479</v>
+        <v>0.1557988778599594</v>
       </c>
     </row>
     <row r="27">
@@ -8143,19 +8143,19 @@
         <v>424865</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>392926</v>
+        <v>391157</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>456522</v>
+        <v>452782</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.5922357581086901</v>
+        <v>0.59223575810869</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.547715849401248</v>
+        <v>0.5452499196919494</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6363640292162266</v>
+        <v>0.6311507230890414</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>573</v>
@@ -8164,19 +8164,19 @@
         <v>453194</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>426798</v>
+        <v>426813</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>477824</v>
+        <v>482322</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5899440181161442</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5555823336067388</v>
+        <v>0.5556016163502407</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6220049894384642</v>
+        <v>0.6278613581814912</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>932</v>
@@ -8185,19 +8185,19 @@
         <v>878060</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>836664</v>
+        <v>839738</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>918888</v>
+        <v>916168</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.5910506987956</v>
+        <v>0.5910506987955999</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5631860520796125</v>
+        <v>0.5652553103127561</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6185335437399297</v>
+        <v>0.6167024301377136</v>
       </c>
     </row>
     <row r="29">
@@ -8214,19 +8214,19 @@
         <v>168200</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>140666</v>
+        <v>139357</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>197366</v>
+        <v>195080</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2344600821091631</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1960794550972564</v>
+        <v>0.1942551987606065</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2751158605694645</v>
+        <v>0.2719291166253075</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>202</v>
@@ -8235,19 +8235,19 @@
         <v>160672</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>141946</v>
+        <v>141392</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>184122</v>
+        <v>183918</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2091538721889314</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1847780347799668</v>
+        <v>0.1840567876371397</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2396800337549284</v>
+        <v>0.2394146432483649</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>337</v>
@@ -8256,19 +8256,19 @@
         <v>328872</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>296753</v>
+        <v>294844</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>365628</v>
+        <v>364932</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.2213742347431763</v>
+        <v>0.2213742347431762</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1997542750384248</v>
+        <v>0.1984690709036935</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2461164086642265</v>
+        <v>0.2456477486430376</v>
       </c>
     </row>
     <row r="30">
@@ -8285,19 +8285,19 @@
         <v>124327</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>102396</v>
+        <v>102149</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>148962</v>
+        <v>151866</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1733041597821469</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1427340001531665</v>
+        <v>0.1423898512171271</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2076434441893169</v>
+        <v>0.2116917027790546</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>182</v>
@@ -8306,19 +8306,19 @@
         <v>154333</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>134202</v>
+        <v>130943</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>176919</v>
+        <v>177091</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2009021096949246</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.174697523358493</v>
+        <v>0.1704546211665421</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2303033143555075</v>
+        <v>0.2305277303945659</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>285</v>
@@ -8327,19 +8327,19 @@
         <v>278660</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>246734</v>
+        <v>247639</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>310447</v>
+        <v>311754</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1875750664612238</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.166084661895109</v>
+        <v>0.1666936912426011</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2089721995946182</v>
+        <v>0.2098516284626376</v>
       </c>
     </row>
     <row r="31">
@@ -8431,19 +8431,19 @@
         <v>579742</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>553085</v>
+        <v>550950</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>605596</v>
+        <v>603364</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7264284416700503</v>
+        <v>0.7264284416700502</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6930260322888574</v>
+        <v>0.6903509655674079</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7588231535404131</v>
+        <v>0.7560276491351988</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>757</v>
@@ -8452,19 +8452,19 @@
         <v>584730</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>559495</v>
+        <v>560319</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>608511</v>
+        <v>609333</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7038673257047525</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6734906749884662</v>
+        <v>0.6744831308145042</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7324941734298067</v>
+        <v>0.7334830306557307</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1303</v>
@@ -8473,19 +8473,19 @@
         <v>1164472</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1130220</v>
+        <v>1127777</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1201359</v>
+        <v>1198364</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7149216441271627</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6938925213233547</v>
+        <v>0.6923925747448637</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7375683504016118</v>
+        <v>0.7357295667073167</v>
       </c>
     </row>
     <row r="33">
@@ -8502,19 +8502,19 @@
         <v>168353</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>145747</v>
+        <v>147430</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>194561</v>
+        <v>195380</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.210949301100787</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1826240557738474</v>
+        <v>0.1847321674825791</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2437893316035327</v>
+        <v>0.2448152793478375</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>216</v>
@@ -8523,19 +8523,19 @@
         <v>171930</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>151757</v>
+        <v>150252</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>194910</v>
+        <v>193194</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2069601329333224</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1826775328670661</v>
+        <v>0.1808654301379794</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2346230283091834</v>
+        <v>0.2325566434880268</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>382</v>
@@ -8544,19 +8544,19 @@
         <v>340283</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>311043</v>
+        <v>310873</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>375371</v>
+        <v>375983</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2089147142240496</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1909631293745994</v>
+        <v>0.1908590404677886</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2304568644657436</v>
+        <v>0.2308327595273665</v>
       </c>
     </row>
     <row r="34">
@@ -8573,19 +8573,19 @@
         <v>49977</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>37998</v>
+        <v>36285</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>65892</v>
+        <v>64226</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06262225722916268</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0476117334989872</v>
+        <v>0.04546610528626299</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08256395224283863</v>
+        <v>0.08047682383943243</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>88</v>
@@ -8594,19 +8594,19 @@
         <v>74079</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>60255</v>
+        <v>60147</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>91444</v>
+        <v>91250</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08917254136192514</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0725318546966524</v>
+        <v>0.07240166783971587</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1100755419855592</v>
+        <v>0.1098422398397302</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>138</v>
@@ -8615,19 +8615,19 @@
         <v>124056</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>103469</v>
+        <v>103309</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>145092</v>
+        <v>146067</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.07616364164878767</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0635240695809422</v>
+        <v>0.06342572677024086</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08907835536770822</v>
+        <v>0.08967714147782085</v>
       </c>
     </row>
     <row r="35">
@@ -8719,19 +8719,19 @@
         <v>2589330</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2531256</v>
+        <v>2530980</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2643398</v>
+        <v>2648270</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.7337648008116096</v>
+        <v>0.7337648008116093</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.7173078874965334</v>
+        <v>0.7172297073378675</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7490867893724441</v>
+        <v>0.7504672707167749</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3983</v>
@@ -8740,19 +8740,19 @@
         <v>2723796</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2668554</v>
+        <v>2673981</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2778348</v>
+        <v>2772083</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.7298843552022475</v>
+        <v>0.7298843552022476</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.7150814063464234</v>
+        <v>0.7165355485945526</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.7445023502082274</v>
+        <v>0.7428236231186666</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>6442</v>
@@ -8761,19 +8761,19 @@
         <v>5313125</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5242176</v>
+        <v>5234822</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5384922</v>
+        <v>5393941</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.7317703337592339</v>
+        <v>0.7317703337592341</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.7219985362106484</v>
+        <v>0.7209857598969429</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7416588314620817</v>
+        <v>0.7429009809105186</v>
       </c>
     </row>
     <row r="37">
@@ -8790,19 +8790,19 @@
         <v>612957</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>565578</v>
+        <v>564346</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>661973</v>
+        <v>662481</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1736998638420416</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1602737150428949</v>
+        <v>0.1599244560675578</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1875899557615452</v>
+        <v>0.1877340133736321</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>858</v>
@@ -8811,19 +8811,19 @@
         <v>621533</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>581693</v>
+        <v>581323</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>662781</v>
+        <v>663097</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.1665496185764158</v>
+        <v>0.1665496185764159</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1558739218323794</v>
+        <v>0.1557746124213193</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1776027835801711</v>
+        <v>0.1776872357492156</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1455</v>
@@ -8832,19 +8832,19 @@
         <v>1234490</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1173389</v>
+        <v>1165602</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1300369</v>
+        <v>1297366</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1700247888547027</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1616094497697025</v>
+        <v>0.1605369255850664</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1790982945595355</v>
+        <v>0.1786846242507224</v>
       </c>
     </row>
     <row r="38">
@@ -8861,19 +8861,19 @@
         <v>326541</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>291187</v>
+        <v>293630</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>367351</v>
+        <v>371405</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.09253533534634889</v>
+        <v>0.09253533534634888</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.0825167512110912</v>
+        <v>0.08320894188165891</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1040999616591277</v>
+        <v>0.1052486993874733</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>521</v>
@@ -8882,19 +8882,19 @@
         <v>386490</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>354780</v>
+        <v>348350</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>423209</v>
+        <v>419831</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1035660262213366</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.09506882529079448</v>
+        <v>0.09334579823680818</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1134055467615257</v>
+        <v>0.1125002528412741</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>837</v>
@@ -8903,19 +8903,19 @@
         <v>713031</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>661824</v>
+        <v>659041</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>764578</v>
+        <v>764544</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.09820487738606345</v>
+        <v>0.09820487738606347</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.09115219107520052</v>
+        <v>0.09076898392195146</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1053044253469403</v>
+        <v>0.1052997868239726</v>
       </c>
     </row>
     <row r="39">
